--- a/02_config/scenario_pv_60_hp_60_ev_60_transition/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_transition/agents.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\LRZ Sync+Share\Thesis - Claudio Lex\02 - Data\Scenarios_NEW\configs\scenario_pv_60_hp_60_ev_60_transition\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2001EDE1-5C22-4DF7-827B-BB478468BE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sfh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1537,8 +1543,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1601,13 +1607,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1645,7 +1659,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1679,6 +1693,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1713,9 +1728,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1888,14 +1904,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CP1" workbookViewId="0">
+      <selection activeCell="DD2" sqref="DD2:DD40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="31" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="34" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="17" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="22" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="22" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="19" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="20" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="24" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="14" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="24" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="14" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="233" max="234" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="19" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="32" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="24" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="14" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="24" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:294">
+    <row r="1" spans="1:294" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2776,7 +3089,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:294">
+    <row r="2" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2958,7 +3271,7 @@
         <v>60</v>
       </c>
       <c r="DD2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="s">
         <v>371</v>
@@ -3312,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:294">
+    <row r="3" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3494,7 +3807,7 @@
         <v>50</v>
       </c>
       <c r="DD3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="s">
         <v>371</v>
@@ -3821,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:294">
+    <row r="4" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3988,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="DD4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="s">
         <v>371</v>
@@ -4252,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:294">
+    <row r="5" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4419,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="DD5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="s">
         <v>371</v>
@@ -4683,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:294">
+    <row r="6" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4865,7 +5178,7 @@
         <v>42</v>
       </c>
       <c r="DD6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="s">
         <v>371</v>
@@ -5165,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:294">
+    <row r="7" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5347,7 +5660,7 @@
         <v>50</v>
       </c>
       <c r="DD7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="s">
         <v>371</v>
@@ -5701,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:294">
+    <row r="8" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5883,7 +6196,7 @@
         <v>90</v>
       </c>
       <c r="DD8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="s">
         <v>371</v>
@@ -6276,7 +6589,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:294">
+    <row r="9" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6458,7 +6771,7 @@
         <v>46</v>
       </c>
       <c r="DD9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="s">
         <v>371</v>
@@ -6839,7 +7152,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="1:294">
+    <row r="10" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7006,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="DD10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="s">
         <v>371</v>
@@ -7270,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:294">
+    <row r="11" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7452,7 +7765,7 @@
         <v>60</v>
       </c>
       <c r="DD11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="s">
         <v>371</v>
@@ -7797,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:294">
+    <row r="12" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7964,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="DD12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="s">
         <v>371</v>
@@ -8228,7 +8541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:294">
+    <row r="13" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8410,7 +8723,7 @@
         <v>56</v>
       </c>
       <c r="DD13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="s">
         <v>371</v>
@@ -8764,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:294">
+    <row r="14" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8931,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="DD14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="s">
         <v>371</v>
@@ -9195,7 +9508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:294">
+    <row r="15" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9377,7 +9690,7 @@
         <v>49</v>
       </c>
       <c r="DD15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="s">
         <v>371</v>
@@ -9704,7 +10017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:294">
+    <row r="16" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9871,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="DD16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE16" t="s">
         <v>371</v>
@@ -10135,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:294">
+    <row r="17" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10302,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="DD17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE17" t="s">
         <v>371</v>
@@ -10566,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:294">
+    <row r="18" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10748,7 +11061,7 @@
         <v>50</v>
       </c>
       <c r="DD18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE18" t="s">
         <v>371</v>
@@ -11102,7 +11415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:294">
+    <row r="19" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11269,7 +11582,7 @@
         <v>0</v>
       </c>
       <c r="DD19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE19" t="s">
         <v>371</v>
@@ -11533,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:294">
+    <row r="20" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11715,7 +12028,7 @@
         <v>47</v>
       </c>
       <c r="DD20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE20" t="s">
         <v>371</v>
@@ -12042,7 +12355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:294">
+    <row r="21" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12224,7 +12537,7 @@
         <v>45</v>
       </c>
       <c r="DD21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE21" t="s">
         <v>371</v>
@@ -12551,7 +12864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:294">
+    <row r="22" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12733,7 +13046,7 @@
         <v>90</v>
       </c>
       <c r="DD22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE22" t="s">
         <v>371</v>
@@ -13066,7 +13379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:294">
+    <row r="23" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13248,7 +13561,7 @@
         <v>90</v>
       </c>
       <c r="DD23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE23" t="s">
         <v>371</v>
@@ -13641,7 +13954,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="24" spans="1:294">
+    <row r="24" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13823,7 +14136,7 @@
         <v>41</v>
       </c>
       <c r="DD24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE24" t="s">
         <v>371</v>
@@ -14150,7 +14463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:294">
+    <row r="25" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14332,7 +14645,7 @@
         <v>71</v>
       </c>
       <c r="DD25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE25" t="s">
         <v>371</v>
@@ -14659,7 +14972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:294">
+    <row r="26" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14841,7 +15154,7 @@
         <v>52</v>
       </c>
       <c r="DD26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE26" t="s">
         <v>371</v>
@@ -15201,7 +15514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:294">
+    <row r="27" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -15368,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="DD27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE27" t="s">
         <v>371</v>
@@ -15632,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:294">
+    <row r="28" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -15814,7 +16127,7 @@
         <v>55</v>
       </c>
       <c r="DD28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE28" t="s">
         <v>371</v>
@@ -16174,7 +16487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:294">
+    <row r="29" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -16356,7 +16669,7 @@
         <v>90</v>
       </c>
       <c r="DD29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE29" t="s">
         <v>371</v>
@@ -16662,7 +16975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:294">
+    <row r="30" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -16844,7 +17157,7 @@
         <v>41</v>
       </c>
       <c r="DD30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE30" t="s">
         <v>371</v>
@@ -17252,7 +17565,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:294">
+    <row r="31" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -17419,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="DD31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE31" t="s">
         <v>371</v>
@@ -17683,7 +17996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:294">
+    <row r="32" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -17850,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="DD32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE32" t="s">
         <v>371</v>
@@ -18114,7 +18427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:294">
+    <row r="33" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -18296,7 +18609,7 @@
         <v>39</v>
       </c>
       <c r="DD33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE33" t="s">
         <v>371</v>
@@ -18650,7 +18963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:294">
+    <row r="34" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -18832,7 +19145,7 @@
         <v>52</v>
       </c>
       <c r="DD34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE34" t="s">
         <v>371</v>
@@ -19240,7 +19553,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:294">
+    <row r="35" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -19407,7 +19720,7 @@
         <v>0</v>
       </c>
       <c r="DD35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE35" t="s">
         <v>371</v>
@@ -19671,7 +19984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:294">
+    <row r="36" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -19838,7 +20151,7 @@
         <v>0</v>
       </c>
       <c r="DD36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE36" t="s">
         <v>371</v>
@@ -20102,7 +20415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:294">
+    <row r="37" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -20269,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="DD37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE37" t="s">
         <v>371</v>
@@ -20533,7 +20846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:294">
+    <row r="38" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -20700,7 +21013,7 @@
         <v>0</v>
       </c>
       <c r="DD38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE38" t="s">
         <v>371</v>
@@ -20964,7 +21277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:294">
+    <row r="39" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -21131,7 +21444,7 @@
         <v>0</v>
       </c>
       <c r="DD39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE39" t="s">
         <v>371</v>
@@ -21395,7 +21708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:294">
+    <row r="40" spans="1:294" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -21577,7 +21890,7 @@
         <v>52</v>
       </c>
       <c r="DD40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE40" t="s">
         <v>371</v>
